--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T15:34:16-05:00</t>
+    <t>2022-07-29T16:31:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T16:31:05-05:00</t>
+    <t>2022-08-02T11:06:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="557">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1214,7 +1214,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConcept</t>
   </si>
   <si>
     <t>Result Value</t>
@@ -1714,6 +1714,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -10144,16 +10148,16 @@
         <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>387</v>
@@ -10223,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>391</v>
@@ -10240,7 +10244,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10266,13 +10270,13 @@
         <v>281</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>398</v>
@@ -10303,7 +10307,7 @@
         <v>146</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Y70" t="s" s="2">
         <v>399</v>
@@ -10324,7 +10328,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -10333,7 +10337,7 @@
         <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>100</v>
@@ -10359,7 +10363,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10443,7 +10447,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10478,7 +10482,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10504,10 +10508,10 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>463</v>
@@ -10562,7 +10566,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="556">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -288,113 +284,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>Observation.meta.lastUpdated</t>
@@ -2354,19 +2350,19 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2377,7 +2373,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2388,28 +2384,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2459,13 +2455,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2494,7 +2490,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2505,25 +2501,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2574,19 +2570,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2620,7 +2616,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -2632,13 +2628,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2689,31 +2685,31 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2724,11 +2720,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2747,16 +2743,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2794,19 +2790,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2818,7 +2814,7 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2830,7 +2826,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -2841,7 +2837,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2852,28 +2848,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2923,19 +2919,19 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -2958,7 +2954,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2969,28 +2965,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3040,19 +3036,19 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -3075,7 +3071,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3086,28 +3082,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3157,19 +3153,19 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3192,7 +3188,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3212,19 +3208,19 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3274,7 +3270,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3286,7 +3282,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3309,7 +3305,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3317,7 +3313,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -3329,19 +3325,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3367,31 +3363,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3403,7 +3399,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3426,41 +3422,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3486,14 +3482,14 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3522,7 +3518,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3545,7 +3541,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3556,7 +3552,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3568,13 +3564,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3625,31 +3621,31 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3660,11 +3656,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3683,16 +3679,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3730,19 +3726,19 @@
         <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3754,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3766,7 +3762,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3777,7 +3773,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3785,34 +3781,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3822,70 +3818,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3896,7 +3892,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3907,28 +3903,28 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3978,31 +3974,31 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4013,7 +4009,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4021,32 +4017,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4095,31 +4091,31 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4130,7 +4126,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4141,29 +4137,29 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4212,31 +4208,31 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4247,7 +4243,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4258,31 +4254,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4331,31 +4327,31 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4366,7 +4362,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4386,19 +4382,19 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4424,31 +4420,31 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4460,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4483,7 +4479,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4494,28 +4490,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4565,19 +4561,19 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4600,7 +4596,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4611,7 +4607,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4623,16 +4619,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4658,43 +4654,43 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4717,18 +4713,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4740,16 +4736,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4799,31 +4795,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4834,11 +4830,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4857,16 +4853,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4916,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4940,7 +4936,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4951,11 +4947,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4974,16 +4970,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5033,7 +5029,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5045,7 +5041,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5057,7 +5053,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5068,11 +5064,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5085,25 +5081,25 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5152,7 +5148,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5164,7 +5160,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5176,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5187,7 +5183,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5207,20 +5203,20 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5269,7 +5265,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5281,22 +5277,22 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5304,11 +5300,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5324,20 +5320,20 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5386,7 +5382,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5398,19 +5394,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5421,11 +5417,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5441,19 +5437,19 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5503,7 +5499,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5515,19 +5511,19 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5538,7 +5534,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5546,34 +5542,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5598,56 +5594,56 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5655,7 +5651,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5663,13 +5659,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5678,19 +5674,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5715,29 +5711,29 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5749,7 +5745,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5761,10 +5757,10 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5772,24 +5768,24 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5797,19 +5793,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5819,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
@@ -5834,14 +5830,14 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5870,7 +5866,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5882,10 +5878,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5893,42 +5889,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -5953,66 +5949,66 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6023,7 +6019,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6035,13 +6031,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6092,31 +6088,31 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6127,11 +6123,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6150,16 +6146,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6197,19 +6193,19 @@
         <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6221,7 +6217,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6233,7 +6229,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6244,7 +6240,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6264,22 +6260,22 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6304,29 +6300,29 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6338,7 +6334,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6347,10 +6343,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6361,7 +6357,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6372,31 +6368,31 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6445,31 +6441,31 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6480,7 +6476,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6488,34 +6484,34 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6564,34 +6560,34 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6599,7 +6595,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6619,19 +6615,19 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6681,7 +6677,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6693,7 +6689,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6702,13 +6698,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6716,42 +6712,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6800,34 +6796,34 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6835,42 +6831,42 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6919,34 +6915,34 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AI41" t="s" s="2">
+      <c r="AJ41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6954,7 +6950,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6965,28 +6961,28 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7036,19 +7032,19 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7057,13 +7053,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7071,7 +7067,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7091,20 +7087,20 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7153,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -7165,22 +7161,22 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7188,7 +7184,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7199,31 +7195,31 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7272,42 +7268,42 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7318,11 +7314,11 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7330,19 +7326,19 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7367,53 +7363,53 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH45" t="s" s="2">
+      <c r="AI45" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7424,11 +7420,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7447,19 +7443,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7484,14 +7480,14 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7508,7 +7504,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7520,30 +7516,30 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7566,19 +7562,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7627,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7639,7 +7635,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7648,10 +7644,10 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7673,7 +7669,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7685,16 +7681,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7720,66 +7716,66 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7790,7 +7786,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7802,19 +7798,19 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7839,55 +7835,55 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7898,7 +7894,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7909,7 +7905,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7921,16 +7917,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7980,42 +7976,42 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8026,7 +8022,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8038,16 +8034,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8097,42 +8093,42 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8155,19 +8151,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -8216,7 +8212,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -8228,19 +8224,19 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8251,7 +8247,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8262,7 +8258,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8274,13 +8270,13 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8331,31 +8327,31 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8366,11 +8362,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8389,16 +8385,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8448,7 +8444,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8460,7 +8456,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8472,7 +8468,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8483,11 +8479,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8500,25 +8496,25 @@
         <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8567,7 +8563,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8579,7 +8575,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8591,7 +8587,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8602,7 +8598,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8613,7 +8609,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8625,13 +8621,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8682,31 +8678,31 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AI56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8717,7 +8713,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8728,7 +8724,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8740,13 +8736,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8797,31 +8793,31 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8832,7 +8828,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8843,7 +8839,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8855,19 +8851,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8892,55 +8888,55 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8951,7 +8947,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8974,19 +8970,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -9011,14 +9007,14 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9035,7 +9031,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -9047,19 +9043,19 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9070,7 +9066,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9081,7 +9077,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9093,17 +9089,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9152,19 +9148,19 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9176,7 +9172,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9187,7 +9183,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9198,7 +9194,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9210,13 +9206,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9267,19 +9263,19 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9288,10 +9284,10 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9302,7 +9298,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9322,19 +9318,19 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9384,7 +9380,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9396,7 +9392,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9405,10 +9401,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9419,7 +9415,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9439,19 +9435,19 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9501,7 +9497,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9513,7 +9509,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9522,10 +9518,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9536,7 +9532,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9556,22 +9552,22 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9620,7 +9616,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9632,7 +9628,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9641,10 +9637,10 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9655,7 +9651,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9666,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9678,13 +9674,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9735,31 +9731,31 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9770,11 +9766,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9793,16 +9789,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9852,7 +9848,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9864,7 +9860,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -9876,7 +9872,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9887,11 +9883,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9904,25 +9900,25 @@
         <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9971,7 +9967,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9983,7 +9979,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -9995,7 +9991,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10006,7 +10002,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10014,34 +10010,34 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -10066,58 +10062,58 @@
         <v>78</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AL68" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10125,7 +10121,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10136,31 +10132,31 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10209,42 +10205,42 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10255,7 +10251,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10267,19 +10263,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10304,43 +10300,43 @@
         <v>78</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10349,10 +10345,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10363,11 +10359,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10386,19 +10382,19 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10423,14 +10419,14 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10459,30 +10455,30 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10508,16 +10504,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10566,7 +10562,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10578,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10587,10 +10583,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T11:27:58-06:00</t>
+    <t>2023-02-01T09:05:11-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:05:11-06:00</t>
+    <t>2023-02-01T09:42:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:42:46-06:00</t>
+    <t>2023-02-02T10:26:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:26:54-06:00</t>
+    <t>2023-02-02T12:45:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T12:45:26-06:00</t>
+    <t>2023-02-02T13:14:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T09:48:28-05:00</t>
+    <t>2023-05-04T21:27:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2120,17 +2120,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2139,28 +2139,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.16796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="242.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.8828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/docs/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:27:58-05:00</t>
+    <t>2023-05-05T10:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
